--- a/10_ADT_demultiplex/table/fol_freq.xlsx
+++ b/10_ADT_demultiplex/table/fol_freq.xlsx
@@ -6,10 +6,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="HH117-SI-PP-nonINF-HLADR-AND-CD" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="HH119-SI-PP-CD19-Pool1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="HH119-SI-PP-CD19-Pool2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="HH119-SI-PP-GC-AND-PB-AND-TFH-P" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="HH117" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="HH119-CD19-Pool1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="HH119-CD19-Pool2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="HH119-GC-AND-PB-AND-TFH-Pool1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="HH119-GC-AND-PB-AND-TFH-Pool2" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
@@ -1000,6 +1001,180 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="n">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="n">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="n">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="n">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>19</v>
       </c>
       <c r="B2" t="n">
